--- a/Info-Día.xlsx
+++ b/Info-Día.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,47 +493,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGRICOLA ACEVEDO MUÑ</t>
+          <t>AGRICOLA DON EDUARDO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EL MANZANO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>612</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>XN7489</t>
+          <t>RG5033</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,34 +543,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA LA AURORA L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>PARCELA N°52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>253</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -580,19 +580,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>KK2235</t>
+          <t>DPBT22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>02:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>GPS</t>
@@ -600,34 +600,34 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA LA AURORA L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>VIÑA EUGENIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>253</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SE3560</t>
+          <t>SW6382</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -657,34 +657,34 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA LA VEGA S.A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>LONTUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -694,17 +694,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>RS7238</t>
+          <t>SE3560</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -714,34 +714,34 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA LA VEGA S.A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>LONTUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>DPBT22</t>
+          <t>FG3050</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -771,34 +771,34 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA LA VEGA S.A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>LONTUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>YS6929</t>
+          <t>SE3560</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -828,34 +828,34 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA SANTA MARTA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO SAN VICENTE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>CHARDONNAY</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -865,17 +865,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BBFH93</t>
+          <t>DX5450</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -885,34 +885,34 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>FRUTICOLA EL AROMO S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO EL LLANO Y EL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -922,17 +922,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>WD7054</t>
+          <t>DJKY16</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -942,34 +942,34 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>FRUTICOLA EL AROMO S</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO EL LLANO Y EL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -979,17 +979,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>LN8571</t>
+          <t>BXYD63</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -999,34 +999,34 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>FRUTICOLA EL AROMO S</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO EL LLANO Y EL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>KE2068</t>
+          <t>YG1739</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1056,34 +1056,34 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>JUAN MIGUEL ALVARO U</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO LAS ROSAS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>YG1739</t>
+          <t>NN7633</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1120,47 +1120,47 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>MARIO ENRIQUE VALENZ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>PARCELA N° 21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>CHARDONNAY</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BDZW11</t>
+          <t>FG3050</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1170,54 +1170,54 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>MARIO ENRIQUE VALENZ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>PARCELA N° 21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>CHARDONNAY</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>KJ1403</t>
+          <t>LA5053</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1227,54 +1227,54 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>MARTA IRENE BARRUETO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>CERRILLOS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SW6382</t>
+          <t>RE7102</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1284,54 +1284,54 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>MARTA IRENE BARRUETO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>CERRILLOS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>KS6067</t>
+          <t>WT3934</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1348,37 +1348,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>MARTA IRENE BARRUETO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>CERRILLOS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>YE1592</t>
+          <t>SU9383</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1405,27 +1405,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>SOCIEDAD AGRICOLA TI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>HACIENDA NANCAGUA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1435,17 +1435,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>KN3613</t>
+          <t>XH5971</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1455,64 +1455,3210 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-18</t>
+          <t>02-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VIÑA EL VATICANO SA</t>
+          <t>SOCIEDAD AGRICOLA TI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FUNDO VATICANO</t>
+          <t>HACIENDA NANCAGUA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>UV6196</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SONIA POZO LUCO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FUNDO SAN GABRIEL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>CHARDONNAY</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PN6229</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>KR5008</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FUNDO IDAHUE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>KK2235</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FUNDO IDAHUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>LV8330</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FUNDO IDAHUE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>LL8730</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FUNDO IDAHUE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FUNDO IDAHUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NV2987</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FUNDO IDAHUE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FUNDO LAS MERCEDES</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>12500</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>AX3670</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>RL8810</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FUNDO PEUMO</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>BBFH93</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FUNDO PEUMO</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>KE2068</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FUNDO PEUMO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NR1063</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>FUNDO PEUMO</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ZA3372</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FUNDO QUIAHUE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>DT9286</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>FUNDO QUIAHUE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FWXD87</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>KG4842</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>05:55</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>HX8708</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>05:40</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ER1474</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>07:15</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>DH5581</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>KK2484</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>07:40</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>GA8180</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ET4560</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>KG4842</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>HX8708</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ER1474</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>DH5581</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>KK2484</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>GA8180</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ET4560</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>KG4842</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>HX8708</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>15:55</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ER1474</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>DH5581</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>12500.0</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>KK2484</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>12500.0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>GA8180</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>12500.0</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ET4560</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>12500.0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>KG4842</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>12500.0</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>HX8708</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>20:35</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>FUNDO SAN IGNACIO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>12500.0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ER1474</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>DG3123</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>KH2225</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>VP7646</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>RC1483</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>SC6441</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FUNDO SANTA ISABEL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>25000.0</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>RS7238</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FUNDO SANTA ISABEL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>25000.0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NN4678</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FUNDO SANTA ISABEL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>25000.0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>BDZW11</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>22:40</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FUNDO SANTA RAQUEL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>25000.0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>KJ1403</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FUNDO SANTA RAQUEL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>25000.0</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>SJ2921</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>VIÑA LOS NOGALES S.A</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LOS NOGALES</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>12500.0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>BVLD21</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>VIÑA LOS NOGALES S.A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>LOS NOGALES</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2103</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>VIÑA LOS NOGALES S.A</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>LOS NOGALES</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2104</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>VIÑA LOS NOGALES S.A</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>LOS NOGALES</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2105</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VIÑA LOS NOGALES S.A</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>LOS NOGALES</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2106</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>02-27</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>VIÑA LOS NOGALES S.A</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>LOS NOGALES</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>12500</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2107</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>

--- a/Info-Día.xlsx
+++ b/Info-Día.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,27 +498,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGRICOLA ACEVEDO MUÑ</t>
+          <t>AGRICOLA AITUE LTDA.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EL MANZANO</t>
+          <t>PARCELA 21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>PINOT GRIS</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -526,22 +526,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>34853</t>
+          <t>9193</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>XN7489</t>
+          <t>PF3756</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -550,56 +550,56 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA AITUE LTDA.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>PARCELA 21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>PINOT GRIS</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>34062</t>
+          <t>9194</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>KK2235</t>
+          <t>BJ1771</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -608,91 +608,83 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA AITUE LTDA.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>PARCELA 21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>PINOT GRIS</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25000</v>
+        <v>10900</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>34022</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SE3560</t>
-        </is>
-      </c>
+          <t>9195</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
+          <t>18:18</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA DON EDUARDO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>612</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>CHARDONNAY</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -700,22 +692,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>34063</t>
+          <t>7296</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>RS7238</t>
+          <t>NN7633</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -724,33 +716,33 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA E INVERSION</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>LO VALDIVIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -758,22 +750,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>34023</t>
+          <t>9217</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DPBT22</t>
+          <t>DT9023</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -788,27 +780,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA GANADERA Y</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO LA ERMITA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -816,22 +808,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>34064</t>
+          <t>9322</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>YS6929</t>
+          <t>KK2235</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -840,33 +832,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA GANADERA Y</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO LA ERMITA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -874,22 +866,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>34024</t>
+          <t>9323</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BBFH93</t>
+          <t>LV8330</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -904,27 +896,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA GANADERA Y</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO LA ERMITA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -932,22 +924,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>34065</t>
+          <t>9326</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>WD7054</t>
+          <t>PN7545</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -956,33 +948,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA GANADERA Y</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO LA ERMITA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -990,22 +982,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>34025</t>
+          <t>9327</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>LN8571</t>
+          <t>NV2987</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1020,27 +1012,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA LA VEGA S.A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>LONTUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1048,22 +1040,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>34066</t>
+          <t>9243</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>KE2068</t>
+          <t>SE3560</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1072,33 +1064,33 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA LOS ALAMOS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>LOS ALAMOS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1106,22 +1098,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>34026</t>
+          <t>9228</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>YG1739</t>
+          <t>SD5602</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1136,27 +1128,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA LOS ALAMOS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>LOS ALAMOS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1164,29 +1156,21 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>34027</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>BDZW11</t>
-        </is>
-      </c>
+          <t>9229</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>3</v>
       </c>
@@ -1194,50 +1178,50 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA MARIAGRI SP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO SAN ISIDRO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>34067</t>
+          <t>9197</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>KJ1403</t>
+          <t>LA5053</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1252,57 +1236,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA MARIAGRI SP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO SAN ISIDRO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>34068</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>SW6382</t>
-        </is>
-      </c>
+          <t>9200</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>2</v>
       </c>
@@ -1310,173 +1286,149 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA MARIAGRI SP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO SAN ISIDRO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>34028</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>KS6067</t>
-        </is>
-      </c>
+          <t>9201</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA MARIAGRI SP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO SAN ISIDRO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOSCATEL DE ALEJANDRIA</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>34029</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>YE1592</t>
-        </is>
-      </c>
+          <t>9202</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VIÑA CONCHA Y TORO S</t>
+          <t>AGRICOLA MARIAGRI SP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FUNDO EL DURAZNO</t>
+          <t>FUNDO SAN ISIDRO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CABERNET SAUVIGNON</t>
+          <t>SAUVIGNON BLANC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>34069</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>KN3613</t>
-        </is>
-      </c>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>2</v>
       </c>
@@ -1484,59 +1436,4313 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18/04</t>
+          <t>09/03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VIÑA EL VATICANO SA</t>
+          <t>AGRICOLA PILQUICURA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FUNDO VATICANO</t>
+          <t>FUNDO SANTA SOFIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5859</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>WV6797</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AGRICOLA PULMODON LT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FUNDO LOS LARGOS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>9318</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>VF5153</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AGRICOLA PULMODON LT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FUNDO LOS LARGOS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>9414</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>BC9540</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AGRICOLA PULMODON LT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FUNDO LOS LARGOS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>9320</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>DT9286</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AGRICOLA SAN NICOLAS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FUNDO LUMBRERAS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>9411</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>XH5971</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AGRICOLA SANTA MARTA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FUNDO SAN VICENTE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>CHARDONNAY</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F24" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5852</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>DX5450</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AGRICOLA SANTA MARTA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FUNDO SAN VICENTE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5853</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>KJ1403</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AGRICOLA Y VIÑEDOS S</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>EX OPAZO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5839</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NR1063</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ETELVINA DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LA PUERTA BAREALES</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>12500</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>34080</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AX3670</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5832</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>RL8810</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ETELVINA DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LA PUERTA BAREALES</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5833</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BVLD21</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FERNANDO ORUETA DE V</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EL CARMEN ALTO</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>YG1739</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FRANCISCO CERECERA G</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VIÑA BELLAVISTA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>9249</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>RE7102</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>07:31</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FRANCISCO CERECERA G</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>VIÑA BELLAVISTA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>9250</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>13:43</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GONZALO TAGLE RIVADE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>HIJUELA STA. BLANCA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>DPKL72</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS CABELLO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>HIJUELA LAS MERCEDES</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>7269</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>BFDK44</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>JUAN MIGUEL ALVARO U</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FUNDO LAS ROSAS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PINOT GRIS</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>9216</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PN6229</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MARIA LUISA DALBUQUE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>LOS NEGROS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SU9383</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>14:56</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ROLANDO ARMANDO CAPO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RAPALLO</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5659</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>WT3934</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SOCIEDAD AGRICOLA EL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PARCELA 59</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5451</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>KB3661</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SOCIEDAD AGRICOLA EL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PARCELA 59</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5452</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>FG3097</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SOCIEDAD AGRICOLA SA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SANTA CRISTINA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1294</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5647</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>RL4898</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SOCIEDAD AGRICOLA TI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>HACIENDA NANCAGUA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>9221</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>BGJL29</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SOCIEDAD AGRICOLA TI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>HACIENDA NANCAGUA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>9222</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>DSBZ72</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SOCIEDAD AGRICOLA TI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>HACIENDA NANCAGUA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>9223</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>DRVC66</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>VITIVINICOLA INVINA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EL PERAL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>9260</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SJ2921</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>03:30</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>VITIVINICOLA INVINA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>EL PERAL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>23000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>9261</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>GDHC67</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VITIVINICOLA LA LADE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FUNDO SAN PEDRO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>7261</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>YE1592</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>5815</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>UV6196</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>5816</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>DPBT22</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>9283</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>KN3613</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>9284</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>KR5008</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5817</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>9281</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FUNDO CHOMEDAHUE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>9285</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>9286</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>KK2484</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>9287</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>ER1474</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>9288</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>KG4842</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>9289</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>HX8708</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>9290</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GDHJ19</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>9291</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>KK2484</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>9292</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>ER1474</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>9293</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>KG4842</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>9294</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>HX8708</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>9295</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>GDHJ19</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>9296</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>KK2484</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>9297</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ER1474</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>9298</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>KG4842</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>9299</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>HX8708</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>9300</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>GDHJ19</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FUNDO EL MIRADOR</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>9301</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>KK2484</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FUNDO LLALLAUQUÉN</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>5794</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>LN8571</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>FUNDO LLALLAUQUÉN</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>9263</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NN4306</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>FUNDO PEUMO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>8667</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>BBFH93</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>FUNDO PEUMO</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>8666</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>KE2068</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>FUNDO PEUMO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>5781</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ZA3372</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>FUNDO PEUMO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>8668</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>DLFK20</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>5763</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>DG3123</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5764</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>KH2225</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>RC1483</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>5766</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>VP7646</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>FUNDO SAN MANUEL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>CHARDONNAY</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>5767</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SC6441</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FUNDO UCUQUER</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>9273</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>DJKY16</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>03:30</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FUNDO UCUQUER</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>9275</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>RS7238</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>FUNDO UCUQUER</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>9276</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>WC3968</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>FUNDO UCUQUER</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>9277</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>BXYD63</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FUNDO YUNGAY</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>9264</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>DH5581</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>FUNDO YUNGAY</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>9265</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>FG3050</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FUNDO YUNGAY</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>9266</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>FWXD87</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>FUNDO YUNGAY</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>9267</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>DH5581</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FUNDO YUNGAY</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>9268</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>FG3050</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FUNDO YUNGAY</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>9269</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>FWXD87</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>FUNDO YUNGAY</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>9270</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>DH5581</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>VIÑA CONCHA Y TORO S</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FUNDO YUNGAY</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>9271</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>FG3050</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>VIÑA LOS NOGALES S.A</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LOS NOGALES</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>9412</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>KY4354</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>09/03</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>VIÑA LOS NOGALES S.A</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LOS NOGALES</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SAUVIGNON BLANC</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>9413</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>DP7371</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
